--- a/data/outputs/OR_altmetric/63.xlsx
+++ b/data/outputs/OR_altmetric/63.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE141"/>
+  <dimension ref="A1:CF141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1035,6 +1040,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1286,6 +1294,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1531,6 +1542,9 @@
         <v>0</v>
       </c>
       <c r="CE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1776,6 +1790,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2028,6 +2045,9 @@
       </c>
       <c r="CE6" t="n">
         <v>0</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -2264,6 +2284,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2509,6 +2532,9 @@
         <v>0</v>
       </c>
       <c r="CE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2762,6 +2788,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2997,6 +3026,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3240,6 +3272,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3489,6 +3524,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3740,6 +3778,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3975,6 +4016,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4216,6 +4260,9 @@
         <v>0</v>
       </c>
       <c r="CE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4469,6 +4516,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4712,6 +4762,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4963,6 +5016,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5198,6 +5254,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5449,6 +5508,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5692,6 +5754,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5931,6 +5996,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6182,6 +6250,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6433,6 +6504,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6684,6 +6758,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6931,6 +7008,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7178,6 +7258,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7417,6 +7500,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7660,6 +7746,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7911,6 +8000,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8154,6 +8246,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8405,6 +8500,9 @@
       <c r="CE32" t="n">
         <v>0</v>
       </c>
+      <c r="CF32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8648,6 +8746,9 @@
       <c r="CE33" t="n">
         <v>0</v>
       </c>
+      <c r="CF33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8897,6 +8998,9 @@
       <c r="CE34" t="n">
         <v>0</v>
       </c>
+      <c r="CF34" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9146,6 +9250,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9383,6 +9490,9 @@
       <c r="CE36" t="n">
         <v>0</v>
       </c>
+      <c r="CF36" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9630,6 +9740,9 @@
       <c r="CE37" t="n">
         <v>0</v>
       </c>
+      <c r="CF37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9865,6 +9978,9 @@
       <c r="CE38" t="n">
         <v>0</v>
       </c>
+      <c r="CF38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10108,6 +10224,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10361,6 +10480,9 @@
       <c r="CE40" t="n">
         <v>0</v>
       </c>
+      <c r="CF40" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10612,6 +10734,9 @@
       <c r="CE41" t="n">
         <v>0</v>
       </c>
+      <c r="CF41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10865,6 +10990,9 @@
       <c r="CE42" t="n">
         <v>0</v>
       </c>
+      <c r="CF42" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11100,6 +11228,9 @@
       <c r="CE43" t="n">
         <v>0</v>
       </c>
+      <c r="CF43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11333,6 +11464,9 @@
       <c r="CE44" t="n">
         <v>0</v>
       </c>
+      <c r="CF44" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11576,6 +11710,9 @@
       <c r="CE45" t="n">
         <v>0</v>
       </c>
+      <c r="CF45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -11811,6 +11948,9 @@
       <c r="CE46" t="n">
         <v>0</v>
       </c>
+      <c r="CF46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12056,6 +12196,9 @@
         <v>0</v>
       </c>
       <c r="CE47" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12293,6 +12436,9 @@
       <c r="CE48" t="n">
         <v>0</v>
       </c>
+      <c r="CF48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12536,6 +12682,9 @@
       <c r="CE49" t="n">
         <v>0</v>
       </c>
+      <c r="CF49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -12787,6 +12936,9 @@
       <c r="CE50" t="n">
         <v>0</v>
       </c>
+      <c r="CF50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -13022,6 +13174,9 @@
       <c r="CE51" t="n">
         <v>0</v>
       </c>
+      <c r="CF51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13265,6 +13420,9 @@
       <c r="CE52" t="n">
         <v>0</v>
       </c>
+      <c r="CF52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -13504,6 +13662,9 @@
       <c r="CE53" t="n">
         <v>0</v>
       </c>
+      <c r="CF53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -13753,6 +13914,9 @@
         <v>0</v>
       </c>
       <c r="CE54" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14006,6 +14170,9 @@
       <c r="CE55" t="n">
         <v>0</v>
       </c>
+      <c r="CF55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -14249,6 +14416,9 @@
       <c r="CE56" t="n">
         <v>0</v>
       </c>
+      <c r="CF56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -14492,6 +14662,9 @@
       <c r="CE57" t="n">
         <v>0</v>
       </c>
+      <c r="CF57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -14727,6 +14900,9 @@
       <c r="CE58" t="n">
         <v>0</v>
       </c>
+      <c r="CF58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -14966,6 +15142,9 @@
       <c r="CE59" t="n">
         <v>0</v>
       </c>
+      <c r="CF59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -15209,6 +15388,9 @@
       <c r="CE60" t="n">
         <v>0</v>
       </c>
+      <c r="CF60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -15462,6 +15644,9 @@
         <v>0</v>
       </c>
       <c r="CE61" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15699,6 +15884,9 @@
       <c r="CE62" t="n">
         <v>0</v>
       </c>
+      <c r="CF62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -15942,6 +16130,9 @@
       <c r="CE63" t="n">
         <v>0</v>
       </c>
+      <c r="CF63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -16185,6 +16376,9 @@
       <c r="CE64" t="n">
         <v>0</v>
       </c>
+      <c r="CF64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -16420,6 +16614,9 @@
       <c r="CE65" t="n">
         <v>0</v>
       </c>
+      <c r="CF65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -16673,6 +16870,9 @@
         <v>0</v>
       </c>
       <c r="CE66" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16926,6 +17126,9 @@
       <c r="CE67" t="n">
         <v>0</v>
       </c>
+      <c r="CF67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -17169,6 +17372,9 @@
       <c r="CE68" t="n">
         <v>0</v>
       </c>
+      <c r="CF68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -17412,6 +17618,9 @@
       <c r="CE69" t="n">
         <v>0</v>
       </c>
+      <c r="CF69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -17663,6 +17872,9 @@
       <c r="CE70" t="n">
         <v>0</v>
       </c>
+      <c r="CF70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -17910,6 +18122,9 @@
       <c r="CE71" t="n">
         <v>0</v>
       </c>
+      <c r="CF71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -18157,6 +18372,9 @@
       <c r="CE72" t="n">
         <v>0</v>
       </c>
+      <c r="CF72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -18396,6 +18614,9 @@
       <c r="CE73" t="n">
         <v>0</v>
       </c>
+      <c r="CF73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -18643,6 +18864,9 @@
       <c r="CE74" t="n">
         <v>0</v>
       </c>
+      <c r="CF74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -18892,6 +19116,9 @@
       <c r="CE75" t="n">
         <v>0</v>
       </c>
+      <c r="CF75" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -19129,6 +19356,9 @@
         <v>0</v>
       </c>
       <c r="CE76" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19374,6 +19604,9 @@
       <c r="CE77" t="n">
         <v>0</v>
       </c>
+      <c r="CF77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -19617,6 +19850,9 @@
       <c r="CE78" t="n">
         <v>0</v>
       </c>
+      <c r="CF78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -19864,6 +20100,9 @@
       <c r="CE79" t="n">
         <v>0</v>
       </c>
+      <c r="CF79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -20099,6 +20338,9 @@
       <c r="CE80" t="n">
         <v>0</v>
       </c>
+      <c r="CF80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -20342,6 +20584,9 @@
       <c r="CE81" t="n">
         <v>0</v>
       </c>
+      <c r="CF81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -20597,6 +20842,9 @@
       <c r="CE82" t="n">
         <v>0</v>
       </c>
+      <c r="CF82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -20842,6 +21090,9 @@
         <v>0</v>
       </c>
       <c r="CE83" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21079,6 +21330,9 @@
       <c r="CE84" t="n">
         <v>0</v>
       </c>
+      <c r="CF84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -21322,6 +21576,9 @@
       <c r="CE85" t="n">
         <v>0</v>
       </c>
+      <c r="CF85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -21573,6 +21830,9 @@
       <c r="CE86" t="n">
         <v>0</v>
       </c>
+      <c r="CF86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -21816,6 +22076,9 @@
       <c r="CE87" t="n">
         <v>0</v>
       </c>
+      <c r="CF87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -22059,6 +22322,9 @@
       <c r="CE88" t="n">
         <v>0</v>
       </c>
+      <c r="CF88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -22294,6 +22560,9 @@
       <c r="CE89" t="n">
         <v>0</v>
       </c>
+      <c r="CF89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -22541,6 +22810,9 @@
       <c r="CE90" t="n">
         <v>0</v>
       </c>
+      <c r="CF90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -22784,6 +23056,9 @@
       <c r="CE91" t="n">
         <v>0</v>
       </c>
+      <c r="CF91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -23035,6 +23310,9 @@
       <c r="CE92" t="n">
         <v>0</v>
       </c>
+      <c r="CF92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -23270,6 +23548,9 @@
       <c r="CE93" t="n">
         <v>0</v>
       </c>
+      <c r="CF93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -23513,6 +23794,9 @@
       <c r="CE94" t="n">
         <v>0</v>
       </c>
+      <c r="CF94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -23752,6 +24036,9 @@
       <c r="CE95" t="n">
         <v>0</v>
       </c>
+      <c r="CF95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -24003,6 +24290,9 @@
       <c r="CE96" t="n">
         <v>0</v>
       </c>
+      <c r="CF96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -24246,6 +24536,9 @@
       <c r="CE97" t="n">
         <v>0</v>
       </c>
+      <c r="CF97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -24486,6 +24779,9 @@
       </c>
       <c r="CE98" t="n">
         <v>0</v>
+      </c>
+      <c r="CF98" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="99">
@@ -24724,6 +25020,9 @@
       <c r="CE99" t="n">
         <v>0</v>
       </c>
+      <c r="CF99" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -24959,6 +25258,9 @@
       <c r="CE100" t="n">
         <v>0</v>
       </c>
+      <c r="CF100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -25194,6 +25496,9 @@
       <c r="CE101" t="n">
         <v>0</v>
       </c>
+      <c r="CF101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -25429,6 +25734,9 @@
       <c r="CE102" t="n">
         <v>0</v>
       </c>
+      <c r="CF102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -25680,6 +25988,9 @@
       <c r="CE103" t="n">
         <v>0</v>
       </c>
+      <c r="CF103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -25923,6 +26234,9 @@
       <c r="CE104" t="n">
         <v>0</v>
       </c>
+      <c r="CF104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -26162,6 +26476,9 @@
       <c r="CE105" t="n">
         <v>0</v>
       </c>
+      <c r="CF105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -26397,6 +26714,9 @@
       <c r="CE106" t="n">
         <v>0</v>
       </c>
+      <c r="CF106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -26644,6 +26964,9 @@
       <c r="CE107" t="n">
         <v>0</v>
       </c>
+      <c r="CF107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -26895,6 +27218,9 @@
       <c r="CE108" t="n">
         <v>0</v>
       </c>
+      <c r="CF108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -27138,6 +27464,9 @@
       <c r="CE109" t="n">
         <v>0</v>
       </c>
+      <c r="CF109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -27373,6 +27702,9 @@
       <c r="CE110" t="n">
         <v>0</v>
       </c>
+      <c r="CF110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -27616,6 +27948,9 @@
       <c r="CE111" t="n">
         <v>0</v>
       </c>
+      <c r="CF111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -27871,6 +28206,9 @@
       <c r="CE112" t="n">
         <v>0</v>
       </c>
+      <c r="CF112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -28110,6 +28448,9 @@
       <c r="CE113" t="n">
         <v>0</v>
       </c>
+      <c r="CF113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -28357,6 +28698,9 @@
       <c r="CE114" t="n">
         <v>0</v>
       </c>
+      <c r="CF114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -28604,6 +28948,9 @@
       <c r="CE115" t="n">
         <v>0</v>
       </c>
+      <c r="CF115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -28841,6 +29188,9 @@
         <v>0</v>
       </c>
       <c r="CE116" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -29096,6 +29446,9 @@
       <c r="CE117" t="n">
         <v>0</v>
       </c>
+      <c r="CF117" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -29343,6 +29696,9 @@
       <c r="CE118" t="n">
         <v>0</v>
       </c>
+      <c r="CF118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -29586,6 +29942,9 @@
       <c r="CE119" t="n">
         <v>0</v>
       </c>
+      <c r="CF119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -29829,6 +30188,9 @@
       <c r="CE120" t="n">
         <v>0</v>
       </c>
+      <c r="CF120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -30076,6 +30438,9 @@
       <c r="CE121" t="n">
         <v>0</v>
       </c>
+      <c r="CF121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -30323,6 +30688,9 @@
       <c r="CE122" t="n">
         <v>0</v>
       </c>
+      <c r="CF122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -30578,6 +30946,9 @@
       <c r="CE123" t="n">
         <v>0</v>
       </c>
+      <c r="CF123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -30823,6 +31194,9 @@
         <v>0</v>
       </c>
       <c r="CE124" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -31060,6 +31434,9 @@
       <c r="CE125" t="n">
         <v>0</v>
       </c>
+      <c r="CF125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -31311,6 +31688,9 @@
       <c r="CE126" t="n">
         <v>0</v>
       </c>
+      <c r="CF126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -31554,6 +31934,9 @@
       <c r="CE127" t="n">
         <v>0</v>
       </c>
+      <c r="CF127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -31793,6 +32176,9 @@
       <c r="CE128" t="n">
         <v>0</v>
       </c>
+      <c r="CF128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -32036,6 +32422,9 @@
       <c r="CE129" t="n">
         <v>0</v>
       </c>
+      <c r="CF129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -32281,6 +32670,9 @@
         <v>0</v>
       </c>
       <c r="CE130" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -32522,6 +32914,9 @@
       <c r="CE131" t="n">
         <v>0</v>
       </c>
+      <c r="CF131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -32761,6 +33156,9 @@
       <c r="CE132" t="n">
         <v>0</v>
       </c>
+      <c r="CF132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -33004,6 +33402,9 @@
       <c r="CE133" t="n">
         <v>0</v>
       </c>
+      <c r="CF133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -33239,6 +33640,9 @@
       <c r="CE134" t="n">
         <v>0</v>
       </c>
+      <c r="CF134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -33474,6 +33878,9 @@
       <c r="CE135" t="n">
         <v>0</v>
       </c>
+      <c r="CF135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -33725,6 +34132,9 @@
       <c r="CE136" t="n">
         <v>0</v>
       </c>
+      <c r="CF136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -33968,6 +34378,9 @@
       <c r="CE137" t="n">
         <v>0</v>
       </c>
+      <c r="CF137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -34215,6 +34628,9 @@
       <c r="CE138" t="n">
         <v>0</v>
       </c>
+      <c r="CF138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -34458,6 +34874,9 @@
       <c r="CE139" t="n">
         <v>0</v>
       </c>
+      <c r="CF139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -34697,6 +35116,9 @@
       <c r="CE140" t="n">
         <v>0</v>
       </c>
+      <c r="CF140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -34944,6 +35366,9 @@
       <c r="CE141" t="n">
         <v>0</v>
       </c>
+      <c r="CF141" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
